--- a/newform.xlsx
+++ b/newform.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\netbox-import-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B838778-786C-4EC3-916F-5AD76105FBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F739B-4E41-4054-BBE8-F21B21CB0C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74BAA3B8-B249-4B4F-9A0F-D94ACEC40751}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Device Types</t>
   </si>
@@ -47,16 +47,10 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Full-Dept</t>
-  </si>
-  <si>
     <t>FortiGate 40F</t>
   </si>
   <si>
     <t>FortiGate</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>FortiGate 3700D</t>
@@ -474,7 +468,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,9 +488,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -506,31 +498,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -552,31 +540,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -586,31 +570,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -620,31 +600,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -654,45 +630,39 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -708,17 +678,15 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -728,17 +696,15 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
